--- a/Book3 - LOOKUP.xlsx
+++ b/Book3 - LOOKUP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\learning-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6876B299-5B76-4996-89D5-E3047CD6B1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9DCE3C-A6A8-46B6-AF7F-7B99AE1C2F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{86E1529C-4C79-47E3-8456-4B5690A5F17E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -61,6 +61,21 @@
   </si>
   <si>
     <t>VLOOOKUP</t>
+  </si>
+  <si>
+    <t>HLOOKUP</t>
+  </si>
+  <si>
+    <t>INDEX</t>
+  </si>
+  <si>
+    <t>MATCH</t>
+  </si>
+  <si>
+    <t>OFFSET</t>
+  </si>
+  <si>
+    <t>CHOOSE</t>
   </si>
 </sst>
 </file>
@@ -395,7 +410,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,6 +468,9 @@
       <c r="C3" s="3">
         <v>5000</v>
       </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -464,6 +482,9 @@
       <c r="C4" s="3">
         <v>7000</v>
       </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -475,9 +496,20 @@
       <c r="C5" s="3">
         <v>10000</v>
       </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Book3 - LOOKUP.xlsx
+++ b/Book3 - LOOKUP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\learning-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9DCE3C-A6A8-46B6-AF7F-7B99AE1C2F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6821F0-9898-4841-90C8-88625D4DC35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{86E1529C-4C79-47E3-8456-4B5690A5F17E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -66,16 +66,25 @@
     <t>HLOOKUP</t>
   </si>
   <si>
-    <t>INDEX</t>
-  </si>
-  <si>
-    <t>MATCH</t>
-  </si>
-  <si>
-    <t>OFFSET</t>
-  </si>
-  <si>
-    <t>CHOOSE</t>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>Bulan</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Penjualan</t>
   </si>
 </sst>
 </file>
@@ -407,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E3E77E2-BAA5-4937-8975-C87D0B0F4EE0}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,7 +428,7 @@
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -468,9 +477,6 @@
       <c r="C3" s="3">
         <v>5000</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -482,9 +488,6 @@
       <c r="C4" s="3">
         <v>7000</v>
       </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -496,19 +499,48 @@
       <c r="C5" s="3">
         <v>10000</v>
       </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="E7" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <f>HLOOKUP("Feb",A9:C10,2, FALSE)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2">
+        <v>100</v>
+      </c>
+      <c r="C10" s="2">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Book3 - LOOKUP.xlsx
+++ b/Book3 - LOOKUP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\learning-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6821F0-9898-4841-90C8-88625D4DC35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B54FC7-616A-49CC-8548-C806948909A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{86E1529C-4C79-47E3-8456-4B5690A5F17E}"/>
   </bookViews>
@@ -128,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -140,6 +140,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,7 +422,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,7 +516,7 @@
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F8">

--- a/Book3 - LOOKUP.xlsx
+++ b/Book3 - LOOKUP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\learning-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B54FC7-616A-49CC-8548-C806948909A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EE0023-CC74-4A1E-9E64-C0B8C05945B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{86E1529C-4C79-47E3-8456-4B5690A5F17E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Penjualan</t>
+  </si>
+  <si>
+    <t>THE BESTOF XLOOKUP</t>
   </si>
 </sst>
 </file>
@@ -140,14 +143,44 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -158,6 +191,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3BD69E0A-8DBC-45E7-915B-54596FB1E646}" name="Table1" displayName="Table1" ref="A1:C5" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:C5" xr:uid="{3BD69E0A-8DBC-45E7-915B-54596FB1E646}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{68BC9542-8ECD-4379-9C92-55DC1430C305}" name="ID" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{B0C80064-DE35-4EE3-BBE8-1D032B3506D4}" name="Nama" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{6BEA4187-29E4-4CB2-9BE3-7525130DE766}" name="Harga" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -419,22 +464,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E3E77E2-BAA5-4937-8975-C87D0B0F4EE0}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,8 +497,15 @@
         <f>VLOOKUP(103,A2:C5,3,FALSE)</f>
         <v>7000</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1">
+        <f>_xlfn.XLOOKUP(I2,Table1[ID],Table1[Harga])</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>101</v>
       </c>
@@ -466,11 +519,14 @@
         <v>7</v>
       </c>
       <c r="F2">
-        <f>_xlfn.XLOOKUP(103, A2:A5, C2:C5, "Tidak ditemukan")</f>
+        <f>_xlfn.XLOOKUP(103, A2:A5, C2:C5, "Tidak ditemukan",0,2)</f>
         <v>7000</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>102</v>
       </c>
@@ -481,7 +537,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>103</v>
       </c>
@@ -492,7 +548,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>104</v>
       </c>
@@ -503,10 +559,10 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -524,7 +580,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -535,7 +591,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -549,5 +605,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>